--- a/match3_dev_list.xlsx
+++ b/match3_dev_list.xlsx
@@ -248,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +258,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -348,6 +354,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -905,8 +914,8 @@
       <c r="D24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="2">
-        <v>0</v>
+      <c r="E24" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:5">
@@ -915,8 +924,8 @@
       <c r="D25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="2">
-        <v>0</v>
+      <c r="E25" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -925,8 +934,8 @@
       <c r="D26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="2">
-        <v>0</v>
+      <c r="E26" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:5">
@@ -935,8 +944,8 @@
       <c r="D27" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="2">
-        <v>0</v>
+      <c r="E27" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:5">
@@ -945,8 +954,8 @@
       <c r="D28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="2">
-        <v>0</v>
+      <c r="E28" s="7">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:5">
